--- a/data/dividends_info_20260212.xlsx
+++ b/data/dividends_info_20260212.xlsx
@@ -528,10 +528,10 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>53.59999847412109</v>
+        <v>54.04999923706055</v>
       </c>
       <c r="I2" t="n">
-        <v>1.305970186431947</v>
+        <v>1.295097150565785</v>
       </c>
       <c r="J2" t="n">
         <v>368</v>
@@ -575,10 +575,10 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>53.59999847412109</v>
+        <v>54.04999923706055</v>
       </c>
       <c r="I3" t="n">
-        <v>4.10447772878612</v>
+        <v>4.070305330349612</v>
       </c>
       <c r="J3" t="n">
         <v>95</v>
@@ -622,10 +622,10 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>20.11000061035156</v>
+        <v>19.67499923706055</v>
       </c>
       <c r="I4" t="n">
-        <v>3.928393714684175</v>
+        <v>4.01524793206562</v>
       </c>
       <c r="J4" t="n">
         <v>95</v>
@@ -669,10 +669,10 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>5.888999938964844</v>
+        <v>5.848000049591064</v>
       </c>
       <c r="I5" t="n">
-        <v>3.226354253170494</v>
+        <v>3.248973980656621</v>
       </c>
       <c r="J5" t="n">
         <v>95</v>
@@ -716,10 +716,10 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>8.840000152587891</v>
+        <v>8.800000190734863</v>
       </c>
       <c r="I6" t="n">
-        <v>5.774886778147308</v>
+        <v>5.801136237900121</v>
       </c>
       <c r="J6" t="n">
         <v>81</v>
@@ -763,10 +763,10 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>19.70000076293945</v>
+        <v>19.39999961853027</v>
       </c>
       <c r="I7" t="n">
-        <v>3.807106451543568</v>
+        <v>3.865979457461552</v>
       </c>
       <c r="J7" t="n">
         <v>81</v>
@@ -810,10 +810,10 @@
         </is>
       </c>
       <c r="H8" t="n">
-        <v>6.875</v>
+        <v>6.840000152587891</v>
       </c>
       <c r="I8" t="n">
-        <v>7.272727272727272</v>
+        <v>7.309941357396413</v>
       </c>
       <c r="J8" t="n">
         <v>67</v>
@@ -857,10 +857,10 @@
         </is>
       </c>
       <c r="H9" t="n">
-        <v>12.42500019073486</v>
+        <v>12.29500007629395</v>
       </c>
       <c r="I9" t="n">
-        <v>4.346076392036355</v>
+        <v>4.392029252941421</v>
       </c>
       <c r="J9" t="n">
         <v>67</v>
@@ -904,10 +904,10 @@
         </is>
       </c>
       <c r="H10" t="n">
-        <v>25.60000038146973</v>
+        <v>25.79999923706055</v>
       </c>
       <c r="I10" t="n">
-        <v>5.312499920837583</v>
+        <v>5.271317985337073</v>
       </c>
       <c r="J10" t="n">
         <v>67</v>
@@ -951,10 +951,10 @@
         </is>
       </c>
       <c r="H11" t="n">
-        <v>18.30500030517578</v>
+        <v>18.0049991607666</v>
       </c>
       <c r="I11" t="n">
-        <v>3.441682543003652</v>
+        <v>3.499028210858169</v>
       </c>
       <c r="J11" t="n">
         <v>67</v>
@@ -998,10 +998,10 @@
         </is>
       </c>
       <c r="H12" t="n">
-        <v>28.88999938964844</v>
+        <v>28.10499954223633</v>
       </c>
       <c r="I12" t="n">
-        <v>0.3115264863323184</v>
+        <v>0.3202277227037402</v>
       </c>
       <c r="J12" t="n">
         <v>39</v>
@@ -1045,10 +1045,10 @@
         </is>
       </c>
       <c r="H13" t="n">
-        <v>1.799999952316284</v>
+        <v>1.774999976158142</v>
       </c>
       <c r="I13" t="n">
-        <v>3.333333421636513</v>
+        <v>3.3802817355449</v>
       </c>
       <c r="J13" t="n">
         <v>-3</v>
@@ -1092,10 +1092,10 @@
         </is>
       </c>
       <c r="H14" t="n">
-        <v>0.1979999989271164</v>
+        <v>0.1875</v>
       </c>
       <c r="I14" t="n">
-        <v>30.30303046723042</v>
+        <v>32</v>
       </c>
       <c r="J14" t="n">
         <v>-10</v>
@@ -1139,10 +1139,10 @@
         </is>
       </c>
       <c r="H15" t="n">
-        <v>9.75100040435791</v>
+        <v>9.583999633789062</v>
       </c>
       <c r="I15" t="n">
-        <v>2.358732339885952</v>
+        <v>2.399833146791021</v>
       </c>
       <c r="J15" t="n">
         <v>-24</v>
@@ -1186,10 +1186,10 @@
         </is>
       </c>
       <c r="H16" t="n">
-        <v>6.105999946594238</v>
+        <v>6.202000141143799</v>
       </c>
       <c r="I16" t="n">
-        <v>1.978381936727316</v>
+        <v>1.947758743161228</v>
       </c>
       <c r="J16" t="n">
         <v>-24</v>
@@ -2920,7 +2920,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Tinexta S.p.A.</t>
+          <t>Snam S.p.A.</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -2930,14 +2930,14 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Snam S.p.A.</t>
+          <t>PIAGGIO &amp; C. S.p.A.</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -2964,14 +2964,14 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>PIAGGIO &amp; C. S.p.A.</t>
+          <t>Nexi S.p.A.</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -2981,14 +2981,14 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Nexi S.p.A.</t>
+          <t>ITALMOBILIARE S.p.A.</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -2998,7 +2998,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
@@ -3022,7 +3022,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Generalfinance S.p.A.</t>
+          <t>EUROCOMMERCIAL PROPERTIES N.V.</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -3032,14 +3032,14 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Annual Preliminary Results</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>EUROCOMMERCIAL PROPERTIES N.V.</t>
+          <t>AZIMUT HOLDING S.p.A.</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -3049,14 +3049,14 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Annual Preliminary Results</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>AZIMUT HOLDING S.p.A.</t>
+          <t>ASCOPIAVE S.p.A.</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -3066,7 +3066,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
@@ -3083,14 +3083,14 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>ASCOPIAVE S.p.A.</t>
+          <t>Generalfinance S.p.A.</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -3107,7 +3107,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>ITALMOBILIARE S.p.A.</t>
+          <t>Tinexta S.p.A.</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -3175,7 +3175,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>CALTAGIRONE EDITORE S.p.A.</t>
+          <t>Sanlorenzo S.p.A.</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -3192,7 +3192,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>CIR S.p.A. - COMPAGNIE INDUSTRIALI RIUNITE</t>
+          <t>DIGITAL BROS S.p.A.</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -3202,14 +3202,14 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Half Year Report</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>DIGITAL BROS S.p.A.</t>
+          <t>CIR S.p.A. - COMPAGNIE INDUSTRIALI RIUNITE</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -3219,14 +3219,14 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Half Year Report</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Sanlorenzo S.p.A.</t>
+          <t>CALTAGIRONE EDITORE S.p.A.</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -3243,7 +3243,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Banca Monte dei Paschi di Siena S.p.A.</t>
+          <t>Banca Popolare di Sondrio S.p.A.</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -3260,7 +3260,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Toscana Aeroporti S.p.A.</t>
+          <t>Banca Monte dei Paschi di Siena S.p.A.</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -3277,7 +3277,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>CAREL INDUSTRIES S.p.A.</t>
+          <t>SAIPEM S.p.A.</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -3294,7 +3294,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>RT&amp;L S.P.A.</t>
+          <t>CAREL INDUSTRIES S.p.A.</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -3311,7 +3311,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>SAIPEM S.p.A.</t>
+          <t>RT&amp;L S.P.A.</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -3328,7 +3328,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Banca Popolare di Sondrio S.p.A.</t>
+          <t>Toscana Aeroporti S.p.A.</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -3345,7 +3345,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>ERG S.p.A.</t>
+          <t>WIIT S.p.A.</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -3362,7 +3362,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Leonardo S.p.A.</t>
+          <t>SYS-DAT S.p.A.</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -3379,7 +3379,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>SALVATORE FERRAGAMO S.p.A.</t>
+          <t>TELECOM ITALIA S.p.A.</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -3396,7 +3396,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>SALVATORE FERRAGAMO S.p.A.</t>
+          <t>Bper Banca S.P.A.</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -3406,14 +3406,14 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>SYS-DAT S.p.A.</t>
+          <t>TESMEC S.p.A.</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -3430,7 +3430,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>TELECOM ITALIA S.p.A.</t>
+          <t>UNIDATA S.p.A.</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -3447,7 +3447,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>TESMEC S.p.A.</t>
+          <t>Basic Net S.p.A.</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -3457,14 +3457,14 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Cementir Holding N.V.</t>
+          <t>WEBUILD S.p.A.</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -3481,7 +3481,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Bper Banca S.P.A.</t>
+          <t>Basic Net S.p.A.</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -3498,7 +3498,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Basic Net S.p.A.</t>
+          <t>ASSICURAZIONI GENERALI S.p.A.</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -3508,14 +3508,14 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Basic Net S.p.A.</t>
+          <t>SALVATORE FERRAGAMO S.p.A.</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -3525,14 +3525,14 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>ASSICURAZIONI GENERALI S.p.A.</t>
+          <t>WIIT S.p.A.</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -3542,14 +3542,14 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>GEOX S.p.A.</t>
+          <t>UNIDATA S.p.A.</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -3559,14 +3559,14 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>TESMEC S.p.A.</t>
+          <t>SALVATORE FERRAGAMO S.p.A.</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -3576,14 +3576,14 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Esprinet S.p.A.</t>
+          <t>TESMEC S.p.A.</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -3593,7 +3593,7 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
@@ -3617,7 +3617,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>UNIDATA S.p.A.</t>
+          <t>Cementir Holding N.V.</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -3627,14 +3627,14 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>WIIT S.p.A.</t>
+          <t>Leonardo S.p.A.</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -3644,14 +3644,14 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>WIIT S.p.A.</t>
+          <t>ERG S.p.A.</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -3668,7 +3668,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>UNIDATA S.p.A.</t>
+          <t>GEOX S.p.A.</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -3685,7 +3685,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>WEBUILD S.p.A.</t>
+          <t>Esprinet S.p.A.</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -3702,7 +3702,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>ERG S.p.A.</t>
+          <t>D'AMICO INTERNATIONAL SHIPPING S.A.</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -3719,7 +3719,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Enervit S.p.A.</t>
+          <t>D'AMICO INTERNATIONAL SHIPPING S.A.</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -3736,7 +3736,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>FINE FOODS &amp; Pharmaceuticals N.T.M. S.p.A.</t>
+          <t>E.P.H. S.p.A.</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -3753,7 +3753,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>ASSICURAZIONI GENERALI S.p.A.</t>
+          <t>EQUITA GROUP S.p.A.</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -3763,14 +3763,14 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>AEFFE S.p.A.</t>
+          <t>ERG S.p.A.</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -3787,7 +3787,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>AEFFE S.p.A.</t>
+          <t>Enervit S.p.A.</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -3804,7 +3804,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>ACEA S.p.A.</t>
+          <t>FINE FOODS &amp; Pharmaceuticals N.T.M. S.p.A.</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -3821,7 +3821,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>EQUITA GROUP S.p.A.</t>
+          <t>Fiera Milano S.p.A</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -3831,14 +3831,14 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>CALTAGIRONE S.p.A.</t>
+          <t>Fiera Milano S.p.A</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -3855,7 +3855,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Aquafil S.p.A.</t>
+          <t>GEFRAN S.p.A.</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -3872,7 +3872,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Avio S.p.A.</t>
+          <t>REPLY S.p.A.</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -3889,7 +3889,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>BANCA IFIS S.p.A.</t>
+          <t>SAFILO GROUP S.p.A.</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -3906,7 +3906,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>BANCA IFIS S.p.A.</t>
+          <t>Sesa S.p.A.</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -3916,14 +3916,14 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Additional Periodic Financial Information</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>BANCA MEDIOLANUM S.p.A.</t>
+          <t>TELECOM ITALIA S.p.A.</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -3933,14 +3933,14 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>BANCO DI DESIO E DELLA BRIANZA S.p.A.</t>
+          <t>TXT E-SOLUTIONS S.p.A.</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -3957,7 +3957,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>BRUNELLO CUCINELLI S.p.A.</t>
+          <t>Tinexta S.p.A.</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -3967,14 +3967,14 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>BRUNELLO CUCINELLI S.p.A.</t>
+          <t>ZIGNAGO VETRO S.p.A.</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -3984,14 +3984,14 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>E.P.H. S.p.A.</t>
+          <t>Orsero S.p.A.</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -4008,7 +4008,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>D'AMICO INTERNATIONAL SHIPPING S.A.</t>
+          <t>CULTI Milano S.p.A.</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -4018,14 +4018,14 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>CIRCLE S.p.A.</t>
+          <t>CY4Gate S.p.A.</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -4035,14 +4035,14 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Annual Preliminary Results</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>CY4Gate S.p.A.</t>
+          <t>CIRCLE S.p.A.</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -4052,14 +4052,14 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Annual Preliminary Results</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>ZIGNAGO VETRO S.p.A.</t>
+          <t>ACEA S.p.A.</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -4076,7 +4076,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Tinexta S.p.A.</t>
+          <t>CREDITO EMILIANO S.p.A.</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -4086,14 +4086,14 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>TXT E-SOLUTIONS S.p.A.</t>
+          <t>AEFFE S.p.A.</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -4103,14 +4103,14 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>TELECOM ITALIA S.p.A.</t>
+          <t>ASSICURAZIONI GENERALI S.p.A.</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -4127,7 +4127,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Sesa S.p.A.</t>
+          <t>Alerion Clean Power S.p.A.</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -4137,14 +4137,14 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Additional Periodic Financial Information</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>D'AMICO INTERNATIONAL SHIPPING S.A.</t>
+          <t>Aquafil S.p.A.</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -4161,7 +4161,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>REPLY S.p.A.</t>
+          <t>Avio S.p.A.</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -4178,7 +4178,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Orsero S.p.A.</t>
+          <t>AEFFE S.p.A.</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -4195,7 +4195,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>GEFRAN S.p.A.</t>
+          <t>BANCA IFIS S.p.A.</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -4205,14 +4205,14 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>SAFILO GROUP S.p.A.</t>
+          <t>BANCA MEDIOLANUM S.p.A.</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -4229,7 +4229,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Fiera Milano S.p.A</t>
+          <t>BANCO DI DESIO E DELLA BRIANZA S.p.A.</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -4239,14 +4239,14 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Alerion Clean Power S.p.A.</t>
+          <t>BRUNELLO CUCINELLI S.p.A.</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -4263,7 +4263,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>CREDITO EMILIANO S.p.A.</t>
+          <t>BRUNELLO CUCINELLI S.p.A.</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -4273,14 +4273,14 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>CULTI Milano S.p.A.</t>
+          <t>CALTAGIRONE S.p.A.</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -4297,7 +4297,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Fiera Milano S.p.A</t>
+          <t>BANCA IFIS S.p.A.</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -4314,7 +4314,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>EMAK S.p.A.</t>
+          <t>LU-VE S.p.A.</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -4324,14 +4324,14 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>EL.EN. S.p.A.</t>
+          <t>LU-VE S.p.A.</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
@@ -4348,7 +4348,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>DE' LONGHI S.p.A.</t>
+          <t>BIESSE S.p.A.</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
@@ -4358,14 +4358,14 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>DE' LONGHI S.p.A.</t>
+          <t>CEMBRE S.p.A.</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
@@ -4416,7 +4416,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>BIESSE S.p.A.</t>
+          <t>DE' LONGHI S.p.A.</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -4426,14 +4426,14 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>LU-VE S.p.A.</t>
+          <t>EL.EN. S.p.A.</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
@@ -4450,7 +4450,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>LU-VE S.p.A.</t>
+          <t>IRCE s.p.a</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
@@ -4460,14 +4460,14 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>MARR S.p.A.</t>
+          <t>EMAK S.p.A.</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
@@ -4477,7 +4477,7 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
@@ -4501,7 +4501,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>CEMBRE S.p.A.</t>
+          <t>DE' LONGHI S.p.A.</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
@@ -4518,7 +4518,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>IRCE s.p.a</t>
+          <t>MARR S.p.A.</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
@@ -4528,7 +4528,7 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
@@ -4543,193 +4543,14 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>stock_name</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>ticker</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>detachment_date</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>payment_date</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>last_close</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>dividend</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>currency</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>ratio</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>miss_days</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>is_opportunity</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>BANCO DI DESIO E DELLA BRIANZA S.p.A.</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>IT0001041000</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>2026-05-04 00:00:00</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>2026-05-06</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>8.840000152587891</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.5105</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>EURO</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>5.774886778147308</v>
-      </c>
-      <c r="I2" t="n">
-        <v>81</v>
-      </c>
-      <c r="J2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Banca Generali S.p.A.</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>IT0001031084</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>2026-05-18 00:00:00</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2026-05-20</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>53.59999847412109</v>
-      </c>
-      <c r="F3" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>EURO</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>4.10447772878612</v>
-      </c>
-      <c r="I3" t="n">
-        <v>95</v>
-      </c>
-      <c r="J3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Banca Generali S.p.A.</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>IT0001031084</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>2027-02-15 00:00:00</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2027-02-17</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>53.59999847412109</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>EURO</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>1.305970186431947</v>
-      </c>
-      <c r="I4" t="n">
-        <v>368</v>
-      </c>
-      <c r="J4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -4740,66 +4561,14 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Stock</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>AEFFE S.p.A.</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2026-03-12</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Analyst Presentation</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>AEFFE S.p.A.</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2026-03-12</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>